--- a/data/trans_orig/P5707-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5707-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>501125</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>470663</v>
+        <v>469251</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>532307</v>
+        <v>535305</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4857163313432864</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4561913141983288</v>
+        <v>0.454822602566912</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5159396459408488</v>
+        <v>0.5188461016613303</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>620</v>
@@ -765,19 +765,19 @@
         <v>624665</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>585157</v>
+        <v>588259</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>659546</v>
+        <v>660760</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4749898519240912</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4449480011639564</v>
+        <v>0.4473065281256068</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5015129383318929</v>
+        <v>0.5024357061132874</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1130</v>
@@ -786,19 +786,19 @@
         <v>1125790</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1079333</v>
+        <v>1076602</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1175273</v>
+        <v>1170490</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4797054589367366</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4599101418240621</v>
+        <v>0.4587463739500619</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.500790781010978</v>
+        <v>0.4987526488716961</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>295334</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>269065</v>
+        <v>266946</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>325046</v>
+        <v>325318</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2862530033666249</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2607917238190348</v>
+        <v>0.2587381150431613</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3150517714275468</v>
+        <v>0.3153153723751586</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>361</v>
@@ -836,19 +836,19 @@
         <v>367477</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>333972</v>
+        <v>337816</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>399713</v>
+        <v>403642</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2794264885537063</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2539494159982063</v>
+        <v>0.256872192500426</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3039381401696073</v>
+        <v>0.3069259553976589</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>655</v>
@@ -857,19 +857,19 @@
         <v>662811</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>619169</v>
+        <v>621524</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>706338</v>
+        <v>704071</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2824275814440837</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2638317049051979</v>
+        <v>0.2648350788781411</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3009745320913124</v>
+        <v>0.3000086647595498</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>175490</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>152945</v>
+        <v>152768</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>201440</v>
+        <v>202288</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1700944051102586</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1482425485981986</v>
+        <v>0.1480707831230031</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1952463292569807</v>
+        <v>0.1960677896851462</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>223</v>
@@ -907,19 +907,19 @@
         <v>232490</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>205301</v>
+        <v>207139</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>261452</v>
+        <v>261157</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1767834051808256</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1561089448966007</v>
+        <v>0.1575069801582629</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1988058685554826</v>
+        <v>0.1985816852495108</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>400</v>
@@ -928,19 +928,19 @@
         <v>407980</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>371768</v>
+        <v>373086</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>444747</v>
+        <v>447081</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1738427669333961</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1584124823523597</v>
+        <v>0.1589739627617688</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1895091656988803</v>
+        <v>0.1905036567356711</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>48729</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37362</v>
+        <v>36758</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65750</v>
+        <v>64463</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04723117648403093</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03621359354748888</v>
+        <v>0.03562742816833572</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06372842881319375</v>
+        <v>0.06248059075100687</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -978,19 +978,19 @@
         <v>77709</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60155</v>
+        <v>61057</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95566</v>
+        <v>94876</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05908919128259268</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04574118702619975</v>
+        <v>0.04642701842486421</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07266789378215134</v>
+        <v>0.07214287443795973</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>122</v>
@@ -999,19 +999,19 @@
         <v>126438</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>104776</v>
+        <v>104213</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>150001</v>
+        <v>147984</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05387613529703936</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04464583336304295</v>
+        <v>0.04440596649539359</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06391621505313608</v>
+        <v>0.06305704978775344</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>11045</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5603</v>
+        <v>5541</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20116</v>
+        <v>20369</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01070508369579919</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005430564841178183</v>
+        <v>0.005370533030590137</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01949773357909166</v>
+        <v>0.01974259833860555</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1049,19 +1049,19 @@
         <v>12771</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6929</v>
+        <v>6768</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21500</v>
+        <v>21169</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009711063058784152</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005268597257369946</v>
+        <v>0.005146235243460024</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01634826652766449</v>
+        <v>0.0160965282889917</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -1070,19 +1070,19 @@
         <v>23816</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15259</v>
+        <v>15564</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>35259</v>
+        <v>36440</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01014805738874428</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006502122631207225</v>
+        <v>0.006631961875570183</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01502409105768648</v>
+        <v>0.01552724616817337</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>1013879</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>971422</v>
+        <v>971596</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1051996</v>
+        <v>1053152</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5987191717375049</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5736477011549557</v>
+        <v>0.5737500986711761</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6212280857555121</v>
+        <v>0.6219111233792687</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>934</v>
@@ -1195,19 +1195,19 @@
         <v>948984</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>911888</v>
+        <v>910516</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>990769</v>
+        <v>989042</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.598089481193153</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5747099263097387</v>
+        <v>0.5738453017595052</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.624424031460624</v>
+        <v>0.6233357266350125</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1903</v>
@@ -1216,19 +1216,19 @@
         <v>1962863</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1902378</v>
+        <v>1900931</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2019788</v>
+        <v>2015264</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5984145700822625</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5799744986230547</v>
+        <v>0.57953334446145</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6157691161531145</v>
+        <v>0.6143899138148993</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>470416</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>436075</v>
+        <v>434075</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>509780</v>
+        <v>509066</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2777913919094571</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2575125576657242</v>
+        <v>0.2563315015027345</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3010367486603742</v>
+        <v>0.3006151073932405</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>416</v>
@@ -1266,19 +1266,19 @@
         <v>421638</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>385154</v>
+        <v>385717</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>456659</v>
+        <v>455118</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.265733573160247</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2427400217824487</v>
+        <v>0.2430946828385365</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2878054500296807</v>
+        <v>0.286834326884698</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>887</v>
@@ -1287,19 +1287,19 @@
         <v>892053</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>839399</v>
+        <v>846305</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>939394</v>
+        <v>944786</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2719586355141662</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2559059149964703</v>
+        <v>0.2580113424821441</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2863912956499108</v>
+        <v>0.2880352384546254</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>176115</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>152965</v>
+        <v>152293</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>201462</v>
+        <v>203626</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1040002387687304</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09032967740482581</v>
+        <v>0.08993234673572388</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1189680152941195</v>
+        <v>0.1202458080850796</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>165</v>
@@ -1337,19 +1337,19 @@
         <v>171876</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>145955</v>
+        <v>149767</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>197454</v>
+        <v>198797</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1083235059374829</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09198695859076986</v>
+        <v>0.09438931628851513</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1244439049234887</v>
+        <v>0.1252899300832192</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>343</v>
@@ -1358,19 +1358,19 @@
         <v>347992</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>312782</v>
+        <v>312196</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>384097</v>
+        <v>382210</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1060915427393382</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09535717388770304</v>
+        <v>0.09517863813992578</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1170988497617262</v>
+        <v>0.1165237398158067</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>28454</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18916</v>
+        <v>17600</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39937</v>
+        <v>39354</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0168025136034849</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01117034835458134</v>
+        <v>0.01039299701533706</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02358393813124288</v>
+        <v>0.02323970023085599</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -1408,19 +1408,19 @@
         <v>41988</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29718</v>
+        <v>29133</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58228</v>
+        <v>56169</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02646280008559262</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01872959484899259</v>
+        <v>0.01836095899707051</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03669775218613033</v>
+        <v>0.03539985671014028</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -1429,19 +1429,19 @@
         <v>70442</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53499</v>
+        <v>54772</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89518</v>
+        <v>88445</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02147550620113422</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01631000241543359</v>
+        <v>0.01669833885844155</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02729123651510042</v>
+        <v>0.02696399005500228</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>4550</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1001</v>
+        <v>985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11914</v>
+        <v>11515</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002686683980822639</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0005908674347870912</v>
+        <v>0.000581802642903705</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007035488029572563</v>
+        <v>0.006800063351703353</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7324</v>
+        <v>6605</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001390639623524563</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.004615996565510289</v>
+        <v>0.004162894985154155</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1500,19 +1500,19 @@
         <v>6756</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2903</v>
+        <v>2897</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14724</v>
+        <v>15258</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002059745463098921</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0008851516854796824</v>
+        <v>0.0008832669631949121</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004489018889938693</v>
+        <v>0.004651821282372862</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>344251</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>321815</v>
+        <v>319684</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>364978</v>
+        <v>366142</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6243134691844201</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5836249459991153</v>
+        <v>0.5797585704441177</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6619023516109189</v>
+        <v>0.664011961251784</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>282</v>
@@ -1625,19 +1625,19 @@
         <v>295740</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>273560</v>
+        <v>273508</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>317017</v>
+        <v>319983</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.620765279611862</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5742082155102953</v>
+        <v>0.5740998657485148</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6654261823259032</v>
+        <v>0.6716522290067615</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>610</v>
@@ -1646,19 +1646,19 @@
         <v>639991</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>607013</v>
+        <v>609024</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>670850</v>
+        <v>673437</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6226688237165175</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5905826319185167</v>
+        <v>0.5925392847486711</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6526919598546964</v>
+        <v>0.6552088005205284</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>153388</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>135178</v>
+        <v>133410</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>175481</v>
+        <v>176009</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2781759775759027</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2451498272824046</v>
+        <v>0.2419443689235057</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3182411366556451</v>
+        <v>0.3191999108166815</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>115</v>
@@ -1696,19 +1696,19 @@
         <v>121177</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>102663</v>
+        <v>101952</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>141355</v>
+        <v>142597</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2543540380831268</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2154916364290347</v>
+        <v>0.2140006366115165</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2967080073992582</v>
+        <v>0.299314579405706</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>262</v>
@@ -1717,19 +1717,19 @@
         <v>274566</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>245627</v>
+        <v>244819</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>303436</v>
+        <v>304131</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2671341084699081</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2389782924714145</v>
+        <v>0.2381920534791142</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2952224875659037</v>
+        <v>0.2958988286164624</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>39885</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28392</v>
+        <v>27612</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54293</v>
+        <v>53333</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07233342877954878</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05149019560660874</v>
+        <v>0.05007564881659905</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09846171577048882</v>
+        <v>0.0967209638172834</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>41</v>
@@ -1767,19 +1767,19 @@
         <v>44062</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31972</v>
+        <v>32028</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>58125</v>
+        <v>58938</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09248663315271917</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06711040861895352</v>
+        <v>0.06722770571157564</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1220061102357177</v>
+        <v>0.1237131688372934</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>79</v>
@@ -1788,19 +1788,19 @@
         <v>83947</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>67341</v>
+        <v>66332</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>102788</v>
+        <v>104227</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08167477753171015</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06551863396669035</v>
+        <v>0.06453636838671559</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.100005740913068</v>
+        <v>0.1014058201309681</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>13883</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7805</v>
+        <v>7865</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23950</v>
+        <v>22610</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02517712446012848</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01415419670686266</v>
+        <v>0.01426390071521087</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04343465337655666</v>
+        <v>0.04100414654565583</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1838,19 +1838,19 @@
         <v>14507</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7661</v>
+        <v>7941</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23005</v>
+        <v>24325</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03045061345626695</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01608133026580017</v>
+        <v>0.01666806583606465</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04828793568145216</v>
+        <v>0.0510596180888831</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -1859,19 +1859,19 @@
         <v>28390</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17901</v>
+        <v>18226</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41473</v>
+        <v>41346</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02762147519172706</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01741682978013629</v>
+        <v>0.01773266469263337</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0403506186556581</v>
+        <v>0.04022653566204085</v>
       </c>
     </row>
     <row r="20">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4688</v>
+        <v>4670</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001943435696025055</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.009840744662343462</v>
+        <v>0.00980151006957122</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4633</v>
+        <v>4417</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0009008150901371308</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.004507268547283364</v>
+        <v>0.00429712732205327</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>1859254</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1804215</v>
+        <v>1796618</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1914781</v>
+        <v>1915030</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5674439215453287</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5506459665813785</v>
+        <v>0.5483273492726258</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5843907725519393</v>
+        <v>0.5844665328477755</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1836</v>
@@ -2047,19 +2047,19 @@
         <v>1869389</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1809687</v>
+        <v>1811430</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1928268</v>
+        <v>1923366</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5533656371166173</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5356928784783698</v>
+        <v>0.5362090219968159</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5707947104415286</v>
+        <v>0.5693436555408006</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3643</v>
@@ -2068,19 +2068,19 @@
         <v>3728644</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3641239</v>
+        <v>3640884</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3802410</v>
+        <v>3812166</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5602972326586261</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5471630060017282</v>
+        <v>0.5471096541603243</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5713819560929544</v>
+        <v>0.5728479661990279</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>919138</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>868094</v>
+        <v>868974</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>964829</v>
+        <v>977265</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2805205184455022</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2649421572544844</v>
+        <v>0.2652106444048656</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2944654723393656</v>
+        <v>0.2982610856472719</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>892</v>
@@ -2118,19 +2118,19 @@
         <v>910292</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>858092</v>
+        <v>856928</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>959602</v>
+        <v>957925</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2694593202215548</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2540074294963853</v>
+        <v>0.2536627165910527</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.284055696763671</v>
+        <v>0.283559454177341</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1804</v>
@@ -2139,19 +2139,19 @@
         <v>1829430</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1758027</v>
+        <v>1757563</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1907349</v>
+        <v>1907862</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2749054207522432</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2641757720476074</v>
+        <v>0.2641061593898641</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2866142743964501</v>
+        <v>0.2866912395920088</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>391491</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>354309</v>
+        <v>355219</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>429311</v>
+        <v>430093</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1194828756704122</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.108134985151449</v>
+        <v>0.1084128705919416</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1310257037622132</v>
+        <v>0.1312643928484178</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>429</v>
@@ -2189,19 +2189,19 @@
         <v>448428</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>406770</v>
+        <v>411024</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>487043</v>
+        <v>490341</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1327410021510116</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1204097771509847</v>
+        <v>0.1216688920959164</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1441715883921891</v>
+        <v>0.1451477603872169</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>822</v>
@@ -2210,19 +2210,19 @@
         <v>839919</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>783693</v>
+        <v>786146</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>892681</v>
+        <v>901043</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1262132202416698</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1177643122487238</v>
+        <v>0.1181329148582258</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1341417003333448</v>
+        <v>0.1353982697236217</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>91066</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>73025</v>
+        <v>72536</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>112757</v>
+        <v>112005</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02779329550943715</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02228713831762764</v>
+        <v>0.02213792058820492</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03441346474611034</v>
+        <v>0.03418388231998689</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>124</v>
@@ -2260,19 +2260,19 @@
         <v>134204</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>113032</v>
+        <v>111419</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>159200</v>
+        <v>156277</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03972636960165114</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03345918677667649</v>
+        <v>0.03298162130688645</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04712556515990486</v>
+        <v>0.04626010679053904</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>212</v>
@@ -2281,19 +2281,19 @@
         <v>225270</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>196516</v>
+        <v>194162</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>258418</v>
+        <v>257414</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03385099156117345</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02953006979567623</v>
+        <v>0.02917637817242259</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03883207439870851</v>
+        <v>0.03868115421746823</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>15594</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8182</v>
+        <v>9106</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26275</v>
+        <v>26821</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004759388829319794</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002496999390956092</v>
+        <v>0.002779153559105515</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008019179996890296</v>
+        <v>0.00818580227069275</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -2331,19 +2331,19 @@
         <v>15904</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9372</v>
+        <v>9538</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26367</v>
+        <v>25670</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004707670909165099</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002774195340424226</v>
+        <v>0.002823252795432613</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.007805150710865628</v>
+        <v>0.007598744013199157</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>29</v>
@@ -2352,19 +2352,19 @@
         <v>31498</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>22048</v>
+        <v>20482</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>44055</v>
+        <v>45468</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004733134786287453</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003313081902116074</v>
+        <v>0.003077821440130012</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.006619998415753213</v>
+        <v>0.006832345997559436</v>
       </c>
     </row>
     <row r="27">
@@ -2695,19 +2695,19 @@
         <v>525294</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>493531</v>
+        <v>493406</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>561336</v>
+        <v>558679</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5417293766741079</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5089720585114595</v>
+        <v>0.5088435229352511</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5788981614787979</v>
+        <v>0.5761582211916277</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>666</v>
@@ -2716,19 +2716,19 @@
         <v>712838</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>677510</v>
+        <v>676527</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>749505</v>
+        <v>750388</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5340926459253694</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5076231092149374</v>
+        <v>0.5068861161169735</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5615651881025805</v>
+        <v>0.5622266856086799</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1159</v>
@@ -2737,19 +2737,19 @@
         <v>1238133</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1187825</v>
+        <v>1184916</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1285915</v>
+        <v>1286467</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5373061764790624</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5154743700191685</v>
+        <v>0.5142119617930543</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5580420647737959</v>
+        <v>0.5582813050101313</v>
       </c>
     </row>
     <row r="5">
@@ -2766,19 +2766,19 @@
         <v>276275</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>248986</v>
+        <v>246795</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>305193</v>
+        <v>306186</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2849192855384021</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2567759690711379</v>
+        <v>0.2545168109595397</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.314741668077595</v>
+        <v>0.3157656493080909</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>381</v>
@@ -2787,19 +2787,19 @@
         <v>409283</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>375401</v>
+        <v>377878</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>444448</v>
+        <v>444480</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3066543832475019</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2812686448541027</v>
+        <v>0.2831239058610672</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3330017495763208</v>
+        <v>0.3330256794964744</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>635</v>
@@ -2808,19 +2808,19 @@
         <v>685558</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>640871</v>
+        <v>640292</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>733291</v>
+        <v>730413</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.297508270483577</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2781154121221999</v>
+        <v>0.2778640397473509</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3182225776979051</v>
+        <v>0.3169736738202357</v>
       </c>
     </row>
     <row r="6">
@@ -2837,19 +2837,19 @@
         <v>129924</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>106206</v>
+        <v>110086</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>151614</v>
+        <v>158779</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.133988701994777</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1095284444284001</v>
+        <v>0.1135301256446436</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.156357393295188</v>
+        <v>0.1637468347439742</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>145</v>
@@ -2858,19 +2858,19 @@
         <v>156635</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>133200</v>
+        <v>132413</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>181979</v>
+        <v>182359</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.117358740730519</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09979966870477489</v>
+        <v>0.0992102336374725</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1363475552137412</v>
+        <v>0.1366321992307647</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>265</v>
@@ -2879,19 +2879,19 @@
         <v>286559</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>253573</v>
+        <v>258419</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>320201</v>
+        <v>320272</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1243566159192249</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1100416723494065</v>
+        <v>0.1121446676656374</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1389560342970942</v>
+        <v>0.1389868406042493</v>
       </c>
     </row>
     <row r="7">
@@ -2908,19 +2908,19 @@
         <v>28804</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19562</v>
+        <v>19883</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40749</v>
+        <v>41449</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02970470649599559</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02017412327619149</v>
+        <v>0.02050547283541727</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04202432187541474</v>
+        <v>0.04274567504626717</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -2929,19 +2929,19 @@
         <v>40079</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29585</v>
+        <v>27891</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55895</v>
+        <v>55751</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03002932923438975</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02216683646323342</v>
+        <v>0.02089696828183151</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04187931968026452</v>
+        <v>0.04177114329767757</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -2950,19 +2950,19 @@
         <v>68883</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53489</v>
+        <v>54642</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>87310</v>
+        <v>88299</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02989272823029838</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02321254239396375</v>
+        <v>0.0237127937145919</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03788967118870196</v>
+        <v>0.03831871430904878</v>
       </c>
     </row>
     <row r="8">
@@ -2979,19 +2979,19 @@
         <v>9365</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4239</v>
+        <v>4162</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18829</v>
+        <v>19377</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009657929296717382</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004371214709484029</v>
+        <v>0.00429213153923981</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01941760081846116</v>
+        <v>0.01998320853927484</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -3000,19 +3000,19 @@
         <v>15836</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8950</v>
+        <v>9108</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26031</v>
+        <v>25481</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01186490086221986</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006705931246127221</v>
+        <v>0.006824212651371286</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01950359763495649</v>
+        <v>0.01909189128376285</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>23</v>
@@ -3021,19 +3021,19 @@
         <v>25201</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15660</v>
+        <v>17203</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>37266</v>
+        <v>37859</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0109362088878373</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00679573541825778</v>
+        <v>0.007465387734940114</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0161719743213115</v>
+        <v>0.0164296903215663</v>
       </c>
     </row>
     <row r="9">
@@ -3125,19 +3125,19 @@
         <v>1221845</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1177516</v>
+        <v>1180773</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1264370</v>
+        <v>1267216</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6228495739512095</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6002525529185716</v>
+        <v>0.6019128512234416</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6445272005368152</v>
+        <v>0.6459782456313621</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>980</v>
@@ -3146,19 +3146,19 @@
         <v>1050363</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1007623</v>
+        <v>1005196</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1091054</v>
+        <v>1098368</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5982478185950949</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5739045547843499</v>
+        <v>0.5725220710605486</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6214238329042665</v>
+        <v>0.6255893816563326</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2141</v>
@@ -3167,19 +3167,19 @@
         <v>2272208</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2210725</v>
+        <v>2210473</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2333483</v>
+        <v>2330142</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6112302393707126</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5946911120970989</v>
+        <v>0.5946233732573302</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.627713267922584</v>
+        <v>0.6268146048936277</v>
       </c>
     </row>
     <row r="11">
@@ -3196,19 +3196,19 @@
         <v>502729</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>465686</v>
+        <v>460487</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>542037</v>
+        <v>540264</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2562719966131919</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2373888529188803</v>
+        <v>0.2347385664662321</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2763098060274398</v>
+        <v>0.2754056518893347</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>464</v>
@@ -3217,19 +3217,19 @@
         <v>497571</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>463720</v>
+        <v>455634</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>541000</v>
+        <v>536843</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2833977557097392</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2641175497508401</v>
+        <v>0.2595121701968822</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3081332951652113</v>
+        <v>0.3057659434390116</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>933</v>
@@ -3238,19 +3238,19 @@
         <v>1000300</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>945659</v>
+        <v>944609</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1053884</v>
+        <v>1055677</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2690834105196555</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2543849307718593</v>
+        <v>0.2541024084264797</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2834978356548149</v>
+        <v>0.283980157939699</v>
       </c>
     </row>
     <row r="12">
@@ -3267,19 +3267,19 @@
         <v>193440</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>168070</v>
+        <v>168208</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>221382</v>
+        <v>224349</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09860844916464079</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08567544320687857</v>
+        <v>0.08574599508893917</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1128523069512272</v>
+        <v>0.1143647326141275</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>147</v>
@@ -3288,19 +3288,19 @@
         <v>157504</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>134361</v>
+        <v>133777</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>184357</v>
+        <v>182437</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08970820583967971</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07652674689343821</v>
+        <v>0.07619433415195452</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.105002803764295</v>
+        <v>0.103909267591324</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>329</v>
@@ -3309,19 +3309,19 @@
         <v>350944</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>313455</v>
+        <v>315261</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>385987</v>
+        <v>387850</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09440489118499225</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08432036559633818</v>
+        <v>0.08480616688058445</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1038314781394412</v>
+        <v>0.1043327501566741</v>
       </c>
     </row>
     <row r="13">
@@ -3338,19 +3338,19 @@
         <v>36867</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26361</v>
+        <v>25697</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49077</v>
+        <v>50603</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0187935872434815</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01343791149806376</v>
+        <v>0.01309933106008192</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.025017543673261</v>
+        <v>0.02579530346720811</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -3359,19 +3359,19 @@
         <v>34500</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23863</v>
+        <v>23495</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50619</v>
+        <v>50077</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01964972197915405</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01359145531469807</v>
+        <v>0.01338213777619828</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02883066329713201</v>
+        <v>0.02852193313389459</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>64</v>
@@ -3380,19 +3380,19 @@
         <v>71367</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55877</v>
+        <v>56521</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95308</v>
+        <v>92227</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01919793708745685</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01503109458773539</v>
+        <v>0.01520440761957257</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02563822630326984</v>
+        <v>0.02480928615582804</v>
       </c>
     </row>
     <row r="14">
@@ -3409,19 +3409,19 @@
         <v>6820</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2967</v>
+        <v>2671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14493</v>
+        <v>13256</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003476393027476241</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001512437159195417</v>
+        <v>0.001361651430465632</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007388008911988834</v>
+        <v>0.006757481734109363</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -3430,19 +3430,19 @@
         <v>15795</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8811</v>
+        <v>8730</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26170</v>
+        <v>27359</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.008996497876332103</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005018357192378467</v>
+        <v>0.00497228382254148</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01490553862845093</v>
+        <v>0.0155823836098356</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -3451,19 +3451,19 @@
         <v>22615</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13774</v>
+        <v>13715</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35045</v>
+        <v>33905</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006083521837182821</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003705166160671398</v>
+        <v>0.00368949822114967</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009427096155389321</v>
+        <v>0.009120415797913109</v>
       </c>
     </row>
     <row r="15">
@@ -3555,19 +3555,19 @@
         <v>328965</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>306498</v>
+        <v>306240</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>352664</v>
+        <v>349894</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6866532999966848</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6397563871844992</v>
+        <v>0.6392189941180241</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.736118867245607</v>
+        <v>0.7303390717181103</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>288</v>
@@ -3576,19 +3576,19 @@
         <v>318100</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>298486</v>
+        <v>296581</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>338181</v>
+        <v>338586</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6935866582978809</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6508185953509771</v>
+        <v>0.6466648003508558</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7373697346649185</v>
+        <v>0.7382543591949162</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>589</v>
@@ -3597,19 +3597,19 @@
         <v>647066</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>615739</v>
+        <v>616598</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>676758</v>
+        <v>676369</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6900443628902168</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.656636797924764</v>
+        <v>0.6575528974336222</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7217086663265506</v>
+        <v>0.7212945999564523</v>
       </c>
     </row>
     <row r="17">
@@ -3626,19 +3626,19 @@
         <v>106990</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>88770</v>
+        <v>88901</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>126930</v>
+        <v>128495</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.223321538231885</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1852910048465492</v>
+        <v>0.1855637389133008</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2649429596381889</v>
+        <v>0.2682096554782847</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>92</v>
@@ -3647,19 +3647,19 @@
         <v>103628</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>86100</v>
+        <v>86296</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>122912</v>
+        <v>122895</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2259514752621423</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1877330563429675</v>
+        <v>0.1881592781824501</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2679982272093955</v>
+        <v>0.2679609259899097</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>193</v>
@@ -3668,19 +3668,19 @@
         <v>210618</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>183484</v>
+        <v>187141</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>238278</v>
+        <v>238263</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2246078242549357</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1956707784565911</v>
+        <v>0.1995713953387197</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2541041228423839</v>
+        <v>0.2540890577239184</v>
       </c>
     </row>
     <row r="18">
@@ -3697,19 +3697,19 @@
         <v>32715</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20949</v>
+        <v>22240</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>46808</v>
+        <v>47380</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06828667788345857</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04372640645648663</v>
+        <v>0.04642102573301957</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09770300262212601</v>
+        <v>0.09889709288582486</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>28</v>
@@ -3718,19 +3718,19 @@
         <v>33137</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22593</v>
+        <v>22025</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>47129</v>
+        <v>46682</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07225264845409801</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04926261924884467</v>
+        <v>0.04802428403446393</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1027591921975684</v>
+        <v>0.1017847697171319</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>54</v>
@@ -3739,19 +3739,19 @@
         <v>65852</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>49484</v>
+        <v>50285</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>87642</v>
+        <v>86007</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07022640969230146</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05277099224158532</v>
+        <v>0.05362513520601927</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09346303995889928</v>
+        <v>0.09171946196615714</v>
       </c>
     </row>
     <row r="19">
@@ -3768,19 +3768,19 @@
         <v>8388</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3336</v>
+        <v>3774</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18235</v>
+        <v>18089</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01750920673411309</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006963747518777388</v>
+        <v>0.007878388494469252</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03806188890908616</v>
+        <v>0.03775753630460002</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -3789,19 +3789,19 @@
         <v>3765</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9338</v>
+        <v>8655</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00820921798587871</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002145337839109212</v>
+        <v>0.002135424155193081</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02036067354127378</v>
+        <v>0.01887049349963055</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -3810,19 +3810,19 @@
         <v>12153</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6487</v>
+        <v>5868</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23030</v>
+        <v>21511</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01296063944761338</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00691818080381372</v>
+        <v>0.006257914197862108</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02455990652138092</v>
+        <v>0.02293935759993086</v>
       </c>
     </row>
     <row r="20">
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9403</v>
+        <v>10116</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004229277153858525</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01962735220697197</v>
+        <v>0.02111506587410471</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11503</v>
+        <v>12147</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00216076371493273</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01226744752233768</v>
+        <v>0.01295411280265</v>
       </c>
     </row>
     <row r="21">
@@ -3977,19 +3977,19 @@
         <v>2076104</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2016166</v>
+        <v>2015683</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2134742</v>
+        <v>2128907</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6087482685257037</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5911733557192725</v>
+        <v>0.5910316548758664</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6259419103423062</v>
+        <v>0.6242310291716494</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1934</v>
@@ -3998,19 +3998,19 @@
         <v>2081302</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2025636</v>
+        <v>2024655</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2145945</v>
+        <v>2144238</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5864415842719155</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5707567737387291</v>
+        <v>0.5704803876433053</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6046556208593957</v>
+        <v>0.6041746683552812</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3889</v>
@@ -4019,19 +4019,19 @@
         <v>4157407</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4068500</v>
+        <v>4069682</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4236384</v>
+        <v>4239547</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5973728240979597</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5845978930001625</v>
+        <v>0.5847677085406523</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6087210228302437</v>
+        <v>0.6091754240834664</v>
       </c>
     </row>
     <row r="23">
@@ -4048,19 +4048,19 @@
         <v>885994</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>830986</v>
+        <v>832915</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>940187</v>
+        <v>942691</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2597882856006252</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2436589269831762</v>
+        <v>0.2442245626164933</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2756783734737363</v>
+        <v>0.2764128007496722</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>937</v>
@@ -4069,19 +4069,19 @@
         <v>1010482</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>950755</v>
+        <v>953871</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1063247</v>
+        <v>1063158</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2847201760782365</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2678909836942409</v>
+        <v>0.2687691505057138</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2995876342495331</v>
+        <v>0.2995624305010238</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1761</v>
@@ -4090,19 +4090,19 @@
         <v>1896477</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1819999</v>
+        <v>1818905</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1975179</v>
+        <v>1973103</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2725024716885242</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2615135046305541</v>
+        <v>0.2613563165047878</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2838111853374347</v>
+        <v>0.2835127809524197</v>
       </c>
     </row>
     <row r="24">
@@ -4119,19 +4119,19 @@
         <v>356079</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>319463</v>
+        <v>320587</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>394215</v>
+        <v>396552</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1044083274463688</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09367182837525347</v>
+        <v>0.09400133871072903</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1155905102009622</v>
+        <v>0.1162756880733418</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>320</v>
@@ -4140,19 +4140,19 @@
         <v>347276</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>310827</v>
+        <v>311928</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>383518</v>
+        <v>385615</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09785090444641263</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08758064885398496</v>
+        <v>0.08789095394590096</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.108062608612022</v>
+        <v>0.1086534169914233</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>648</v>
@@ -4161,19 +4161,19 @@
         <v>703356</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>653290</v>
+        <v>645404</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>755602</v>
+        <v>752481</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1010643252595559</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0938704719306173</v>
+        <v>0.09273736104477712</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1085714998119105</v>
+        <v>0.1081231236785059</v>
       </c>
     </row>
     <row r="25">
@@ -4190,19 +4190,19 @@
         <v>74059</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>58191</v>
+        <v>56602</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>94454</v>
+        <v>91689</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02171542313221305</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01706242614596177</v>
+        <v>0.01659678047556588</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02769553024401199</v>
+        <v>0.02688478003072908</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>70</v>
@@ -4211,19 +4211,19 @@
         <v>78344</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>60889</v>
+        <v>61435</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>99863</v>
+        <v>100594</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02207471832560515</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01715639818417667</v>
+        <v>0.01731039490251454</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02813818440125525</v>
+        <v>0.0283440846362277</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>140</v>
@@ -4232,19 +4232,19 @@
         <v>152403</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>127925</v>
+        <v>129916</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>178695</v>
+        <v>180860</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02189864814490821</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01838146182378794</v>
+        <v>0.01866745611410716</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02567647473609402</v>
+        <v>0.02598751026637014</v>
       </c>
     </row>
     <row r="26">
@@ -4261,19 +4261,19 @@
         <v>18211</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10878</v>
+        <v>10227</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29207</v>
+        <v>28021</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005339695295089206</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003189658798868839</v>
+        <v>0.002998755943140518</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008564063697898841</v>
+        <v>0.008216305766884384</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>28</v>
@@ -4282,19 +4282,19 @@
         <v>31631</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19522</v>
+        <v>21275</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>44389</v>
+        <v>44914</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.008912616877830301</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005500583090806634</v>
+        <v>0.005994681824793261</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01250726266549028</v>
+        <v>0.01265525203360568</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>44</v>
@@ -4303,19 +4303,19 @@
         <v>49842</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>36752</v>
+        <v>36944</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>67136</v>
+        <v>66571</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00716173080905209</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005280906829047775</v>
+        <v>0.005308471366812759</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.009646631807174975</v>
+        <v>0.009565543595907635</v>
       </c>
     </row>
     <row r="27">
@@ -4646,19 +4646,19 @@
         <v>347447</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>321897</v>
+        <v>318584</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>374391</v>
+        <v>373372</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4605926824460634</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4267225577297298</v>
+        <v>0.4223312223823628</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4963107406473068</v>
+        <v>0.4949601169226477</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>396</v>
@@ -4667,19 +4667,19 @@
         <v>437948</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>403953</v>
+        <v>407666</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>468486</v>
+        <v>467505</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4413815354612412</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4071206548440398</v>
+        <v>0.4108623434118259</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4721596575836844</v>
+        <v>0.4711707485748257</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>745</v>
@@ -4688,19 +4688,19 @@
         <v>785394</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>747917</v>
+        <v>745870</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>831010</v>
+        <v>829432</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4496788786105503</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4282213920275545</v>
+        <v>0.4270490929074346</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.475796299872388</v>
+        <v>0.4748924770141151</v>
       </c>
     </row>
     <row r="5">
@@ -4717,19 +4717,19 @@
         <v>250250</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>225776</v>
+        <v>223270</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>274338</v>
+        <v>274796</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3317435920254774</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2992992862633683</v>
+        <v>0.295977646443648</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3636766957752076</v>
+        <v>0.3642830406373107</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>305</v>
@@ -4738,19 +4738,19 @@
         <v>340311</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>311731</v>
+        <v>309343</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>373489</v>
+        <v>371373</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.342979712232464</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3141747834268559</v>
+        <v>0.3117682506273138</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3764174600704331</v>
+        <v>0.3742849313952892</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>557</v>
@@ -4759,19 +4759,19 @@
         <v>590561</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>547560</v>
+        <v>552745</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>629710</v>
+        <v>632792</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3381268033927206</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3135064568767021</v>
+        <v>0.3164751617599351</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3605413571694853</v>
+        <v>0.3623059932893338</v>
       </c>
     </row>
     <row r="6">
@@ -4788,19 +4788,19 @@
         <v>126896</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107686</v>
+        <v>109343</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>148511</v>
+        <v>147425</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1682198394971883</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1427536589473026</v>
+        <v>0.1449506075723939</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1968732464215847</v>
+        <v>0.1954344213201171</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>136</v>
@@ -4809,19 +4809,19 @@
         <v>151567</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>128407</v>
+        <v>128031</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>176992</v>
+        <v>175938</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1527556491178158</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1294141803956914</v>
+        <v>0.1290350779188349</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1783797982463428</v>
+        <v>0.1773172938486349</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>267</v>
@@ -4830,19 +4830,19 @@
         <v>278463</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>247958</v>
+        <v>249464</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>309842</v>
+        <v>309812</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1594346721977636</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1419690454340976</v>
+        <v>0.1428310916145977</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1774003677338195</v>
+        <v>0.1773834521849854</v>
       </c>
     </row>
     <row r="7">
@@ -4859,19 +4859,19 @@
         <v>26653</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17314</v>
+        <v>18085</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37936</v>
+        <v>38212</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03533251318253051</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02295166091890378</v>
+        <v>0.02397478253842974</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05028999040368439</v>
+        <v>0.05065507683347856</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -4880,19 +4880,19 @@
         <v>52417</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39458</v>
+        <v>38051</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69491</v>
+        <v>68917</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0528280403302633</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03976734668798136</v>
+        <v>0.03834888807014883</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07003606128251538</v>
+        <v>0.06945777639712741</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -4901,19 +4901,19 @@
         <v>79070</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62150</v>
+        <v>62762</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>98154</v>
+        <v>99477</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04527167774361082</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03558421657214366</v>
+        <v>0.03593443050961456</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05619818759011302</v>
+        <v>0.05695581819525151</v>
       </c>
     </row>
     <row r="8">
@@ -4930,19 +4930,19 @@
         <v>3101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8557</v>
+        <v>8363</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004111372848740348</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001190071434259126</v>
+        <v>0.001183062534148188</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01134358454249724</v>
+        <v>0.01108637263590098</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -4951,19 +4951,19 @@
         <v>9977</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5151</v>
+        <v>4249</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19231</v>
+        <v>19768</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01005506285821566</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005191656896742299</v>
+        <v>0.004282015693494789</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01938166168297738</v>
+        <v>0.01992274380179174</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -4972,19 +4972,19 @@
         <v>13078</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6801</v>
+        <v>6522</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23948</v>
+        <v>22522</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007487968055354606</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003893988881038261</v>
+        <v>0.003734453836422251</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01371124491815421</v>
+        <v>0.01289478227131565</v>
       </c>
     </row>
     <row r="9">
@@ -5076,19 +5076,19 @@
         <v>1016949</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>968481</v>
+        <v>969327</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1064104</v>
+        <v>1065029</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4905962926507351</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4672143654009945</v>
+        <v>0.467622439372388</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5133448899278729</v>
+        <v>0.513791178582223</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>969</v>
@@ -5097,19 +5097,19 @@
         <v>1003608</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>958799</v>
+        <v>960117</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1049147</v>
+        <v>1048390</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.50565158962074</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4830754074870707</v>
+        <v>0.4837395928079967</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5285960290534633</v>
+        <v>0.5282144897427694</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1930</v>
@@ -5118,19 +5118,19 @@
         <v>2020556</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1954611</v>
+        <v>1958595</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2092702</v>
+        <v>2089517</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4979604970140838</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.481708482846214</v>
+        <v>0.482690287002644</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5157405362983835</v>
+        <v>0.5149556371954728</v>
       </c>
     </row>
     <row r="11">
@@ -5147,19 +5147,19 @@
         <v>687220</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>643170</v>
+        <v>644866</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>732348</v>
+        <v>732725</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3315285883610866</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3102782416846542</v>
+        <v>0.311096022177249</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3532992365386832</v>
+        <v>0.3534809752435581</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>662</v>
@@ -5168,19 +5168,19 @@
         <v>687201</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>640490</v>
+        <v>646031</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>728667</v>
+        <v>729055</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.346235026363483</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.322700687594263</v>
+        <v>0.3254922629433258</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3671272474796286</v>
+        <v>0.3673224014248035</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1307</v>
@@ -5189,19 +5189,19 @@
         <v>1374421</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1309290</v>
+        <v>1313350</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1434619</v>
+        <v>1436095</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3387221505420478</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3226707863524799</v>
+        <v>0.3236713331056666</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3535578099018405</v>
+        <v>0.3539214956096619</v>
       </c>
     </row>
     <row r="12">
@@ -5218,19 +5218,19 @@
         <v>311606</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>281753</v>
+        <v>277819</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>346300</v>
+        <v>345880</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1503248405917222</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1359230282257836</v>
+        <v>0.1340253223948288</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1670620714338049</v>
+        <v>0.1668593390671153</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>241</v>
@@ -5239,19 +5239,19 @@
         <v>259515</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>230949</v>
+        <v>229509</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>290694</v>
+        <v>290725</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1307526185247164</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1163598922788778</v>
+        <v>0.1156344033844028</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1464614772595929</v>
+        <v>0.1464770067303516</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>532</v>
@@ -5260,19 +5260,19 @@
         <v>571121</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>527482</v>
+        <v>525107</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>616317</v>
+        <v>618503</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1407512105641354</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1299963598989358</v>
+        <v>0.1294112430140741</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1518896321496577</v>
+        <v>0.1524283715257217</v>
       </c>
     </row>
     <row r="13">
@@ -5289,19 +5289,19 @@
         <v>40928</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29280</v>
+        <v>29230</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55779</v>
+        <v>55845</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01974454395378651</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01412527521162064</v>
+        <v>0.01410126665129122</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02690884624445274</v>
+        <v>0.02694058264616556</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -5310,19 +5310,19 @@
         <v>24193</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15463</v>
+        <v>15767</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35894</v>
+        <v>37154</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01218945408988599</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007790904201179661</v>
+        <v>0.007943804120442389</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0180844909433316</v>
+        <v>0.01871956936222717</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -5331,19 +5331,19 @@
         <v>65122</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49785</v>
+        <v>50835</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>82667</v>
+        <v>83963</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01604901899323102</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01226931307567365</v>
+        <v>0.01252808671893252</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0203730139965497</v>
+        <v>0.02069242138213145</v>
       </c>
     </row>
     <row r="14">
@@ -5360,19 +5360,19 @@
         <v>16180</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8778</v>
+        <v>9380</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25763</v>
+        <v>26567</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00780573444266956</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00423452139705573</v>
+        <v>0.004525302877472895</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01242878679911192</v>
+        <v>0.01281624084392836</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -5381,19 +5381,19 @@
         <v>10264</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5136</v>
+        <v>5008</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18870</v>
+        <v>17855</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005171311401174603</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002587593278405801</v>
+        <v>0.002523294802123227</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009507182431802654</v>
+        <v>0.008996029222598921</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -5402,19 +5402,19 @@
         <v>26444</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17803</v>
+        <v>17350</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38765</v>
+        <v>39062</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006517122886501932</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00438755131032297</v>
+        <v>0.004275741769108976</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.00955360158111295</v>
+        <v>0.009626779771119252</v>
       </c>
     </row>
     <row r="15">
@@ -5506,19 +5506,19 @@
         <v>304893</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>280201</v>
+        <v>280773</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>328358</v>
+        <v>328708</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5594315653835559</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5141247607849735</v>
+        <v>0.5151759418585072</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6024858271124011</v>
+        <v>0.6031291294282404</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>328</v>
@@ -5527,19 +5527,19 @@
         <v>339724</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>315807</v>
+        <v>317735</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>362448</v>
+        <v>363439</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6197015477715604</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5760735265817707</v>
+        <v>0.5795896425862231</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.661152090324554</v>
+        <v>0.6629612823390152</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>610</v>
@@ -5548,19 +5548,19 @@
         <v>644617</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>608981</v>
+        <v>610857</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>677666</v>
+        <v>675565</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5896548026724686</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5570573286672046</v>
+        <v>0.558773342309008</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6198860176468368</v>
+        <v>0.6179642648328669</v>
       </c>
     </row>
     <row r="17">
@@ -5577,19 +5577,19 @@
         <v>183800</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>161373</v>
+        <v>162811</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207341</v>
+        <v>207498</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3372449322296026</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2960953829382788</v>
+        <v>0.2987338252025992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3804387882137013</v>
+        <v>0.3807259117688927</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>137</v>
@@ -5598,19 +5598,19 @@
         <v>145006</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>124806</v>
+        <v>125179</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>166636</v>
+        <v>167247</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2645101028685904</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2276625777084686</v>
+        <v>0.2283426106398094</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3039658179207175</v>
+        <v>0.3050814625174365</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>304</v>
@@ -5619,19 +5619,19 @@
         <v>328806</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>299289</v>
+        <v>299455</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>362079</v>
+        <v>361357</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3007710206761793</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2737707416292137</v>
+        <v>0.27392223342313</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3312070668052803</v>
+        <v>0.3305466805245102</v>
       </c>
     </row>
     <row r="18">
@@ -5648,19 +5648,19 @@
         <v>55319</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40809</v>
+        <v>40635</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>70066</v>
+        <v>70838</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1015016377629281</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07487790187659658</v>
+        <v>0.07455871404078809</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1285601770038851</v>
+        <v>0.1299770525188076</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>51</v>
@@ -5669,19 +5669,19 @@
         <v>53514</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41945</v>
+        <v>40585</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>69766</v>
+        <v>68685</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09761639806199156</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07651388319898955</v>
+        <v>0.07403303201480331</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1272621137308649</v>
+        <v>0.1252904352236144</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>100</v>
@@ -5690,19 +5690,19 @@
         <v>108833</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>89290</v>
+        <v>88956</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>129770</v>
+        <v>130777</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09955332922270393</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08167655642917621</v>
+        <v>0.08137153936848451</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1187049838601593</v>
+        <v>0.1196262265594457</v>
       </c>
     </row>
     <row r="19">
@@ -5732,19 +5732,19 @@
         <v>9962</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4842</v>
+        <v>4995</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19929</v>
+        <v>18410</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0181719512978577</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008831673989784822</v>
+        <v>0.009112009796396762</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03635290995815951</v>
+        <v>0.03358242063894783</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -5753,19 +5753,19 @@
         <v>9962</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4853</v>
+        <v>5161</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19349</v>
+        <v>20606</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009112582654197522</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00443952689688222</v>
+        <v>0.004720589782668884</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01769891831248348</v>
+        <v>0.01884949039475229</v>
       </c>
     </row>
     <row r="20">
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4698</v>
+        <v>5238</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0018218646239135</v>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.008619756320831147</v>
+        <v>0.009610280394007874</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4978</v>
+        <v>4996</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0009082647744505835</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.004553310416784343</v>
+        <v>0.00457031554472538</v>
       </c>
     </row>
     <row r="21">
@@ -5920,19 +5920,19 @@
         <v>1669288</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1617468</v>
+        <v>1612926</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1731198</v>
+        <v>1728768</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4950095135292388</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4796430106535702</v>
+        <v>0.4782960047608234</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5133681533836756</v>
+        <v>0.512647732488852</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1693</v>
@@ -5941,19 +5941,19 @@
         <v>1781279</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1726158</v>
+        <v>1722568</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1843372</v>
+        <v>1836694</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5052977970240446</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4896614489774577</v>
+        <v>0.4886430191150551</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5229116712622881</v>
+        <v>0.521017475895967</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3285</v>
@@ -5962,19 +5962,19 @@
         <v>3450567</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3365647</v>
+        <v>3363626</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3533224</v>
+        <v>3535302</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5002677430805345</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4879559657704917</v>
+        <v>0.4876629591728071</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5122513791090112</v>
+        <v>0.512552723252801</v>
       </c>
     </row>
     <row r="23">
@@ -5991,19 +5991,19 @@
         <v>1121270</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1065888</v>
+        <v>1062641</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1172252</v>
+        <v>1175377</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3325005318329352</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3160776263632855</v>
+        <v>0.3151149491030751</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3476187796174407</v>
+        <v>0.3485456421457194</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1104</v>
@@ -6012,19 +6012,19 @@
         <v>1172518</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1109403</v>
+        <v>1117928</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1227536</v>
+        <v>1229077</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3326097060002188</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3147058654165591</v>
+        <v>0.3171241715850006</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3482168391416209</v>
+        <v>0.3486537520015702</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2168</v>
@@ -6033,19 +6033,19 @@
         <v>2293788</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2214620</v>
+        <v>2220397</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2368238</v>
+        <v>2376243</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3325563295598289</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3210784648644058</v>
+        <v>0.3219159866345725</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3433502092843949</v>
+        <v>0.3445108214677057</v>
       </c>
     </row>
     <row r="24">
@@ -6062,19 +6062,19 @@
         <v>493821</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>448622</v>
+        <v>453022</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>537172</v>
+        <v>536173</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1464372589329593</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1330339924711799</v>
+        <v>0.1343389485689025</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1592925841036795</v>
+        <v>0.1589963484308068</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>428</v>
@@ -6083,19 +6083,19 @@
         <v>464596</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>423274</v>
+        <v>421876</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>508031</v>
+        <v>511056</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1317926658161981</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.120070564259537</v>
+        <v>0.1196739733066548</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1441137310915671</v>
+        <v>0.1449720156058564</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>899</v>
@@ -6104,19 +6104,19 @@
         <v>958417</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>894484</v>
+        <v>899306</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1017565</v>
+        <v>1016444</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1389525670179152</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1296835262362168</v>
+        <v>0.130382610695258</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1475278662393453</v>
+        <v>0.1473653890419327</v>
       </c>
     </row>
     <row r="25">
@@ -6133,19 +6133,19 @@
         <v>67581</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51877</v>
+        <v>53910</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86718</v>
+        <v>85577</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02004045064628321</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01538364420344696</v>
+        <v>0.01598652445531476</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02571543739356931</v>
+        <v>0.02537687715017514</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>77</v>
@@ -6154,19 +6154,19 @@
         <v>86572</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>69529</v>
+        <v>69981</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>107965</v>
+        <v>108556</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02455810958967354</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01972327293454136</v>
+        <v>0.01985154503892687</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03062649496770915</v>
+        <v>0.0307942017883061</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>141</v>
@@ -6175,19 +6175,19 @@
         <v>154154</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>129947</v>
+        <v>129922</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>181826</v>
+        <v>180135</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02234937688949989</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01883983585308432</v>
+        <v>0.01883620574531462</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02636141281911705</v>
+        <v>0.02611618052201794</v>
       </c>
     </row>
     <row r="26">
@@ -6204,19 +6204,19 @@
         <v>20275</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12108</v>
+        <v>13287</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30287</v>
+        <v>32650</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006012245058583499</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003590434601022882</v>
+        <v>0.003940044263862548</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008981376962825338</v>
+        <v>0.009682124360870742</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -6225,19 +6225,19 @@
         <v>20241</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12396</v>
+        <v>12989</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31284</v>
+        <v>34087</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005741721569864897</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003516322178541501</v>
+        <v>0.00368457612632134</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.008874486918601791</v>
+        <v>0.009669451698063389</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>37</v>
@@ -6246,19 +6246,19 @@
         <v>40515</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30026</v>
+        <v>28889</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>56847</v>
+        <v>55785</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005873983452221475</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004353271438629755</v>
+        <v>0.004188344410158423</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008241772850296812</v>
+        <v>0.008087801200949325</v>
       </c>
     </row>
     <row r="27">
@@ -6589,19 +6589,19 @@
         <v>280860</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>257908</v>
+        <v>258097</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>303791</v>
+        <v>304032</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4872563504791851</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4474364678931586</v>
+        <v>0.4477646531960808</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5270378471035484</v>
+        <v>0.5274559800474731</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>631</v>
@@ -6610,19 +6610,19 @@
         <v>365001</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>342943</v>
+        <v>340961</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>387556</v>
+        <v>386022</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4479079237806936</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4208392411684916</v>
+        <v>0.4184072897689048</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4755860453110445</v>
+        <v>0.4737034376401827</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>959</v>
@@ -6631,19 +6631,19 @@
         <v>645862</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>612911</v>
+        <v>615025</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>678213</v>
+        <v>674517</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4642097144102388</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4405265155553919</v>
+        <v>0.4420455202502981</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4874617770419921</v>
+        <v>0.4848052798914317</v>
       </c>
     </row>
     <row r="5">
@@ -6660,19 +6660,19 @@
         <v>161418</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>142418</v>
+        <v>140268</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>181253</v>
+        <v>180574</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2800394379764855</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2470764685911949</v>
+        <v>0.2433466491252101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3144495920309819</v>
+        <v>0.3132726812534743</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>450</v>
@@ -6681,19 +6681,19 @@
         <v>262402</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>240864</v>
+        <v>243925</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282250</v>
+        <v>284840</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.322004504172527</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2955746097544456</v>
+        <v>0.2993307915628787</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3463612555938858</v>
+        <v>0.3495386270225999</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>649</v>
@@ -6702,19 +6702,19 @@
         <v>423821</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>395052</v>
+        <v>394664</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>451625</v>
+        <v>453440</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3046186572586248</v>
+        <v>0.3046186572586247</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2839416202908973</v>
+        <v>0.2836624105975853</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3246030665598799</v>
+        <v>0.3259077775158741</v>
       </c>
     </row>
     <row r="6">
@@ -6731,19 +6731,19 @@
         <v>91681</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>75275</v>
+        <v>75553</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>110899</v>
+        <v>110809</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1590546257082238</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1305920579018953</v>
+        <v>0.1310753723879015</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1923946304056024</v>
+        <v>0.1922384255869688</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>211</v>
@@ -6752,19 +6752,19 @@
         <v>116368</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>103291</v>
+        <v>102224</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>132655</v>
+        <v>130944</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1428004975509328</v>
+        <v>0.1428004975509329</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1267527143973216</v>
+        <v>0.1254431682987811</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1627868572318139</v>
+        <v>0.1606869506884651</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>317</v>
@@ -6773,19 +6773,19 @@
         <v>208050</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>185310</v>
+        <v>185733</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>231569</v>
+        <v>233748</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1495344743911329</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1331903121791791</v>
+        <v>0.1334947510636981</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1664391389429684</v>
+        <v>0.1680049423944915</v>
       </c>
     </row>
     <row r="7">
@@ -6802,19 +6802,19 @@
         <v>29030</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20959</v>
+        <v>20386</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39486</v>
+        <v>40462</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05036330527218839</v>
+        <v>0.0503633052721884</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03636033124847299</v>
+        <v>0.03536758187220477</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06850315801218559</v>
+        <v>0.07019605520871697</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>93</v>
@@ -6823,19 +6823,19 @@
         <v>52926</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43090</v>
+        <v>42391</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65296</v>
+        <v>65799</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06494806092325381</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05287726313018407</v>
+        <v>0.05201940323983557</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08012715567864845</v>
+        <v>0.08074526097099796</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>130</v>
@@ -6844,19 +6844,19 @@
         <v>81956</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66886</v>
+        <v>67065</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>95805</v>
+        <v>96679</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05890569397352619</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04807406349354876</v>
+        <v>0.04820225340640415</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06885953643009596</v>
+        <v>0.06948739243405046</v>
       </c>
     </row>
     <row r="8">
@@ -6873,19 +6873,19 @@
         <v>13422</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8021</v>
+        <v>8207</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21724</v>
+        <v>21247</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02328628056391724</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01391484817958734</v>
+        <v>0.01423787846597855</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03768847277069075</v>
+        <v>0.03685994418427104</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -6894,19 +6894,19 @@
         <v>18204</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12712</v>
+        <v>12446</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25946</v>
+        <v>26772</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0223390135725928</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01559975481839324</v>
+        <v>0.01527349803016942</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03183886394573823</v>
+        <v>0.03285305116891047</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>49</v>
@@ -6915,19 +6915,19 @@
         <v>31627</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23706</v>
+        <v>22437</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42779</v>
+        <v>41069</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.02273145996647726</v>
+        <v>0.02273145996647727</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0170382024855312</v>
+        <v>0.01612673862761815</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03074742019582078</v>
+        <v>0.0295180956702906</v>
       </c>
     </row>
     <row r="9">
@@ -7019,19 +7019,19 @@
         <v>1214096</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1161608</v>
+        <v>1156088</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1263776</v>
+        <v>1263421</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5456391806813652</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5220501053533555</v>
+        <v>0.5195691898738142</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5679664331548243</v>
+        <v>0.5678068330122895</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1586</v>
@@ -7040,19 +7040,19 @@
         <v>1208695</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1164792</v>
+        <v>1169454</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1250748</v>
+        <v>1250361</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5572645797226314</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5370236415316809</v>
+        <v>0.5391729036493751</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5766530467511463</v>
+        <v>0.5764746975412541</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2617</v>
@@ -7061,19 +7061,19 @@
         <v>2422791</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2358362</v>
+        <v>2349756</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2492614</v>
+        <v>2497756</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5513776513811901</v>
+        <v>0.5513776513811902</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5367150419538752</v>
+        <v>0.5347564573946681</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5672678600674329</v>
+        <v>0.5684381147023474</v>
       </c>
     </row>
     <row r="11">
@@ -7090,19 +7090,19 @@
         <v>780963</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>733337</v>
+        <v>732800</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>835019</v>
+        <v>832809</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3509804205015232</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.329576159468888</v>
+        <v>0.3293350835041466</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3752740721051788</v>
+        <v>0.374281019094912</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1007</v>
@@ -7111,19 +7111,19 @@
         <v>724350</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>686316</v>
+        <v>683411</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>764451</v>
+        <v>761409</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3339591090858131</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3164238615017628</v>
+        <v>0.3150843118322609</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3524474597965768</v>
+        <v>0.3510450518262397</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1740</v>
@@ -7132,19 +7132,19 @@
         <v>1505313</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1440757</v>
+        <v>1433180</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1568846</v>
+        <v>1570155</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3425784468157227</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3278869163407078</v>
+        <v>0.3261624828084807</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3570373529620119</v>
+        <v>0.3573350879088954</v>
       </c>
     </row>
     <row r="12">
@@ -7161,19 +7161,19 @@
         <v>157927</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>133449</v>
+        <v>135008</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>185696</v>
+        <v>187179</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07097563009970767</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05997458866929114</v>
+        <v>0.06067541589424806</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08345570477747641</v>
+        <v>0.08412204007498486</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>206</v>
@@ -7182,19 +7182,19 @@
         <v>151726</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>130992</v>
+        <v>132006</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>175328</v>
+        <v>176680</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06995292045686734</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06039358511724215</v>
+        <v>0.06086095024491606</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08083432255786263</v>
+        <v>0.08145750206021818</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>359</v>
@@ -7203,19 +7203,19 @@
         <v>309654</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>278510</v>
+        <v>275699</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>344399</v>
+        <v>344374</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07047080533635669</v>
+        <v>0.0704708053363567</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06338314087899627</v>
+        <v>0.0627435451899559</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07837807267351368</v>
+        <v>0.07837240224436783</v>
       </c>
     </row>
     <row r="13">
@@ -7232,19 +7232,19 @@
         <v>55719</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41930</v>
+        <v>42098</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74349</v>
+        <v>75366</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02504116142354272</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01884431568257628</v>
+        <v>0.01891971998603131</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03341392904980663</v>
+        <v>0.03387113463454273</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -7253,19 +7253,19 @@
         <v>63559</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51122</v>
+        <v>51951</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76359</v>
+        <v>77834</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02930383063795545</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02356953683965168</v>
+        <v>0.02395205440895386</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03520511761644679</v>
+        <v>0.03588526128221714</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>145</v>
@@ -7274,19 +7274,19 @@
         <v>119278</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100076</v>
+        <v>100235</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143748</v>
+        <v>142997</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02714527865023957</v>
+        <v>0.02714527865023958</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02277519380283506</v>
+        <v>0.02281139583997405</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03271407866116295</v>
+        <v>0.0325432441199086</v>
       </c>
     </row>
     <row r="14">
@@ -7303,19 +7303,19 @@
         <v>16385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10020</v>
+        <v>9378</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26337</v>
+        <v>26081</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007363607293861246</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004503330381749829</v>
+        <v>0.004214588734704202</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01183627730988603</v>
+        <v>0.01172125712963917</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -7324,19 +7324,19 @@
         <v>20648</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12933</v>
+        <v>13244</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34199</v>
+        <v>34042</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009519560096732776</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005962572713076199</v>
+        <v>0.00610588398475225</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01576738083867445</v>
+        <v>0.01569513592273136</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>44</v>
@@ -7345,19 +7345,19 @@
         <v>37032</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26245</v>
+        <v>26277</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>52638</v>
+        <v>52489</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008427817816490865</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005972724473330682</v>
+        <v>0.00598005008141543</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01197928936848173</v>
+        <v>0.01194535932167324</v>
       </c>
     </row>
     <row r="15">
@@ -7449,19 +7449,19 @@
         <v>458840</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>429553</v>
+        <v>432086</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>485359</v>
+        <v>486646</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6460340047894235</v>
+        <v>0.6460340047894234</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6047976526652116</v>
+        <v>0.6083646197824867</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6833706207877535</v>
+        <v>0.6851833325597767</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>673</v>
@@ -7470,19 +7470,19 @@
         <v>505221</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>481549</v>
+        <v>483609</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>525455</v>
+        <v>526624</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.688116023292159</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6558750966234198</v>
+        <v>0.65868065171884</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.715674315093252</v>
+        <v>0.7172665653634802</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1097</v>
@@ -7491,19 +7491,19 @@
         <v>964061</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>928408</v>
+        <v>928396</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>997633</v>
+        <v>1004795</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6674241337054313</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6427410717799834</v>
+        <v>0.6427329608908685</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6906657547107953</v>
+        <v>0.6956238594147202</v>
       </c>
     </row>
     <row r="17">
@@ -7520,19 +7520,19 @@
         <v>198241</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>173804</v>
+        <v>171946</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>222840</v>
+        <v>223315</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2791174698611359</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2447111362033107</v>
+        <v>0.2420954539900423</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3137517752531543</v>
+        <v>0.3144206330267267</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>277</v>
@@ -7541,19 +7541,19 @@
         <v>191003</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>170934</v>
+        <v>169858</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>214372</v>
+        <v>211612</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2601473436113975</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.232814428316286</v>
+        <v>0.2313486505362454</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2919772217778484</v>
+        <v>0.2882179748430259</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>484</v>
@@ -7562,19 +7562,19 @@
         <v>389243</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>356366</v>
+        <v>354782</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>420931</v>
+        <v>422427</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.269475027305571</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.246713598642995</v>
+        <v>0.2456168526367655</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2914124533022855</v>
+        <v>0.2924484624139332</v>
       </c>
     </row>
     <row r="18">
@@ -7591,19 +7591,19 @@
         <v>34310</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23458</v>
+        <v>23731</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>48586</v>
+        <v>48151</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04830809437999862</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03302841488920442</v>
+        <v>0.03341287049864645</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06840828425359853</v>
+        <v>0.06779577600006066</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>32</v>
@@ -7612,19 +7612,19 @@
         <v>24286</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16771</v>
+        <v>16567</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>34982</v>
+        <v>34482</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0330773540676513</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02284164843362714</v>
+        <v>0.02256480268551107</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04764521651474982</v>
+        <v>0.04696544182454224</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>64</v>
@@ -7633,19 +7633,19 @@
         <v>58596</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>45191</v>
+        <v>44710</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>75096</v>
+        <v>75674</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0405663673821321</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03128581339796836</v>
+        <v>0.03095325902821221</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05198918313610388</v>
+        <v>0.05238961068273626</v>
       </c>
     </row>
     <row r="19">
@@ -7662,19 +7662,19 @@
         <v>15652</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8714</v>
+        <v>9016</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27546</v>
+        <v>26641</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0220382505794958</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01226908136981812</v>
+        <v>0.01269393170902548</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0387844721770283</v>
+        <v>0.03751013531458331</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -7683,19 +7683,19 @@
         <v>7932</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3711</v>
+        <v>4679</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13510</v>
+        <v>14021</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01080351823879192</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005054307686623005</v>
+        <v>0.006373193341239042</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01840057294466079</v>
+        <v>0.01909622091398786</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -7704,19 +7704,19 @@
         <v>23585</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15918</v>
+        <v>15335</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36795</v>
+        <v>36443</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01632767913699533</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01102043304783679</v>
+        <v>0.01061614869093708</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0254732219297497</v>
+        <v>0.02522981877486445</v>
       </c>
     </row>
     <row r="20">
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11376</v>
+        <v>12281</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004502180389946121</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01601727787784056</v>
+        <v>0.01729193162083658</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -7754,19 +7754,19 @@
         <v>5768</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2612</v>
+        <v>2752</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10489</v>
+        <v>10611</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.007855760790000237</v>
+        <v>0.007855760790000235</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003558200136256102</v>
+        <v>0.003748633989545177</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01428631389457732</v>
+        <v>0.01445279330163838</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -7775,19 +7775,19 @@
         <v>8965</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4574</v>
+        <v>4570</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17107</v>
+        <v>17335</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006206792469870271</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00316642074518626</v>
+        <v>0.003164059914849885</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01184298971855249</v>
+        <v>0.01200127999015105</v>
       </c>
     </row>
     <row r="21">
@@ -7879,19 +7879,19 @@
         <v>1953798</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1890685</v>
+        <v>1891504</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2017771</v>
+        <v>2022427</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5563609249190327</v>
+        <v>0.5563609249190328</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5383890683785842</v>
+        <v>0.5386223267200946</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5745780193221305</v>
+        <v>0.5759038249296181</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2890</v>
@@ -7900,19 +7900,19 @@
         <v>2078917</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2028458</v>
+        <v>2022002</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2135927</v>
+        <v>2130685</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5591357811421293</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5455646528129363</v>
+        <v>0.5438281612042875</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5744689130123568</v>
+        <v>0.5730592798921424</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4673</v>
@@ -7921,19 +7921,19 @@
         <v>4032714</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3947883</v>
+        <v>3946398</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4116828</v>
+        <v>4115873</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.55778795109478</v>
+        <v>0.5577879510947799</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5460545185554051</v>
+        <v>0.545849135267686</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5694223246781113</v>
+        <v>0.5692901346138879</v>
       </c>
     </row>
     <row r="23">
@@ -7950,19 +7950,19 @@
         <v>1140622</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1076750</v>
+        <v>1076033</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1194839</v>
+        <v>1200795</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3248021691829883</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.306613855479056</v>
+        <v>0.3064099122801332</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3402407708467461</v>
+        <v>0.3419369328213898</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1734</v>
@@ -7971,19 +7971,19 @@
         <v>1177755</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1123974</v>
+        <v>1128833</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1226334</v>
+        <v>1229732</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3167634254790003</v>
+        <v>0.3167634254790004</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3022988414306567</v>
+        <v>0.3036056384606244</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3298291962955107</v>
+        <v>0.3307430063591295</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2873</v>
@@ -7992,19 +7992,19 @@
         <v>2318377</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2230467</v>
+        <v>2242568</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2390711</v>
+        <v>2398179</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3206680819498441</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3085088469535265</v>
+        <v>0.3101825094126294</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3306730100055895</v>
+        <v>0.3317060618935628</v>
       </c>
     </row>
     <row r="24">
@@ -8021,19 +8021,19 @@
         <v>283919</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>252532</v>
+        <v>250666</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>324391</v>
+        <v>318169</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.0808483251427818</v>
+        <v>0.08084832514278181</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07191056918324841</v>
+        <v>0.07137927509701297</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09237308400154491</v>
+        <v>0.0906015202335974</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>449</v>
@@ -8042,19 +8042,19 @@
         <v>292380</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>265242</v>
+        <v>266533</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>318592</v>
+        <v>322386</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.07863729860113354</v>
+        <v>0.07863729860113351</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07133828367989298</v>
+        <v>0.07168550966760309</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08568690173349433</v>
+        <v>0.08670739797973757</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>740</v>
@@ -8063,19 +8063,19 @@
         <v>576299</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>534480</v>
+        <v>532876</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>623837</v>
+        <v>623003</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07971125983325633</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07392704688845926</v>
+        <v>0.07370517065489629</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08628656190682668</v>
+        <v>0.08617115506172995</v>
       </c>
     </row>
     <row r="25">
@@ -8092,19 +8092,19 @@
         <v>100401</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>81719</v>
+        <v>81602</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>123212</v>
+        <v>122976</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02859016730001584</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02327016805432845</v>
+        <v>0.02323702221046802</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03508580565914295</v>
+        <v>0.03501852673521534</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>196</v>
@@ -8113,19 +8113,19 @@
         <v>124418</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>106833</v>
+        <v>105560</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>144500</v>
+        <v>142146</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03346281449640254</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02873330175988258</v>
+        <v>0.02839084048622757</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03886391772269138</v>
+        <v>0.03823093661117592</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>301</v>
@@ -8134,19 +8134,19 @@
         <v>224819</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>200650</v>
+        <v>197093</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>254410</v>
+        <v>255952</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03109602509421378</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02775309705602514</v>
+        <v>0.02726100469600954</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03518893532370556</v>
+        <v>0.03540215972997136</v>
       </c>
     </row>
     <row r="26">
@@ -8163,19 +8163,19 @@
         <v>33005</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>22492</v>
+        <v>23516</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>45589</v>
+        <v>46921</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009398413455181368</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006404723578024474</v>
+        <v>0.006696368748053106</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01298190261665389</v>
+        <v>0.01336114023038937</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -8184,19 +8184,19 @@
         <v>44620</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>33827</v>
+        <v>33802</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>58877</v>
+        <v>58110</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01200068028133447</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.009097942392970749</v>
+        <v>0.009091180316632275</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01583537591835507</v>
+        <v>0.01562901783399977</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>104</v>
@@ -8205,19 +8205,19 @@
         <v>77624</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>62234</v>
+        <v>62455</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>96424</v>
+        <v>96181</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01073668202790588</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008607909685935422</v>
+        <v>0.00863851346535177</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0133369722062986</v>
+        <v>0.01330330882200516</v>
       </c>
     </row>
     <row r="27">
